--- a/output/StructureDefinition-MyPatient.xlsx
+++ b/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T11:55:01+00:00</t>
+    <t>2021-10-08T12:09:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-MyPatient.xlsx
+++ b/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T12:09:18+00:00</t>
+    <t>2021-10-08T12:35:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-MyPatient.xlsx
+++ b/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T12:35:43+00:00</t>
+    <t>2021-10-08T12:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-MyPatient.xlsx
+++ b/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T12:39:43+00:00</t>
+    <t>2021-10-08T12:45:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-MyPatient.xlsx
+++ b/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T12:45:55+00:00</t>
+    <t>2021-10-08T12:53:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-MyPatient.xlsx
+++ b/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T12:53:48+00:00</t>
+    <t>2021-10-08T13:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-MyPatient.xlsx
+++ b/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T13:09:17+00:00</t>
+    <t>2021-10-08T13:16:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-MyPatient.xlsx
+++ b/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T13:16:36+00:00</t>
+    <t>2021-10-08T13:24:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-MyPatient.xlsx
+++ b/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T13:24:23+00:00</t>
+    <t>2021-10-08T13:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-MyPatient.xlsx
+++ b/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T13:35:21+00:00</t>
+    <t>2021-10-08T13:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
